--- a/case/fast/api/fast_auto_product_screen_1.xlsx
+++ b/case/fast/api/fast_auto_product_screen_1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>sql语句列表</t>
   </si>
@@ -137,84 +137,87 @@
     <t>realtime_mks_events</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>https://fast-test.mypaas.com</t>
+  </si>
+  <si>
+    <t>/api/screen/641969294082576384/realtime/mks_events</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f052de260-dc060015f8-17656f48"}</t>
+  </si>
+  <si>
+    <t>${now_page}</t>
+  </si>
+  <si>
+    <t>{"type":"func","func":"${generate_overview_time_range(page=1)}","key":"now_page"}</t>
+  </si>
+  <si>
+    <t>{"type":"response_body","text":"code=2000;msg=成功"};{"type":"response_code","text":"200"}</t>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>metric-proxy_</t>
+  </si>
+  <si>
+    <t>/api/metric-proxy/</t>
+  </si>
+  <si>
+    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f04d3db80-2f78005fb0-28206c35"}</t>
+  </si>
+  <si>
+    <t>{"dashboard_type": "6", "product_id": "641969294082576384", "mks_env_tag": "prod"}</t>
+  </si>
+  <si>
+    <t>{"type":"mysql","database":"tenant_skyline","sql":"select id from product_app limit 2","key":"feature_id"}</t>
+  </si>
+  <si>
+    <t>{"type":"response_body","text":"code=4000"};{"type":"response_incloud","text":"msg in 请与容器云（天眼）确认是否已配置采集应用基础监控信息"}</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>deployed_env</t>
+  </si>
+  <si>
+    <t>/api/user/product/deployed/env</t>
+  </si>
+  <si>
+    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f049524e0-71ae00f1b6-a3654c2e"}</t>
+  </si>
+  <si>
+    <t>{"product_id": ${default_test4444}}</t>
+  </si>
+  <si>
+    <t>{"type":"mysql","database":"tenant_skyline","sql":"select ${id} from product_app limit 2","key":"feature_id_2"}</t>
+  </si>
+  <si>
+    <t>{"type":"response_body","text":"code=2000;msg=成功"};{"type":"length_equals","text":"res=body.data","len":1 }</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>healthmetricscore_serverandappscore</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>https://fast-test.mypaas.com</t>
-  </si>
-  <si>
-    <t>/api/screen/641969294082576384/realtime/mks_events</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f052de260-dc060015f8-17656f48"}</t>
-  </si>
-  <si>
-    <t>${now_page}</t>
-  </si>
-  <si>
-    <t>{"type":"func","func":"${generate_overview_time_range(page=1)}","key":"now_page"}</t>
-  </si>
-  <si>
-    <t>{"type":"response_body","text":"code=2000;msg=成功"};{"type":"response_code","text":"200"}</t>
-  </si>
-  <si>
-    <t>case_2</t>
-  </si>
-  <si>
-    <t>metric-proxy_</t>
-  </si>
-  <si>
-    <t>/api/metric-proxy/</t>
-  </si>
-  <si>
-    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f04d3db80-2f78005fb0-28206c35"}</t>
-  </si>
-  <si>
-    <t>{"dashboard_type": "6", "product_id": "641969294082576384", "mks_env_tag": "prod"}</t>
-  </si>
-  <si>
-    <t>{"type":"mysql","database":"tenant_skyline","sql":"select id from product_app limit 2","key":"feature_id"}</t>
-  </si>
-  <si>
-    <t>{"type":"response_body","text":"code=4000"};{"type":"response_incloud","text":"msg in 请与容器云（天眼）确认是否已配置采集应用基础监控信息"}</t>
-  </si>
-  <si>
-    <t>case_3</t>
-  </si>
-  <si>
-    <t>deployed_env</t>
-  </si>
-  <si>
-    <t>/api/user/product/deployed/env</t>
-  </si>
-  <si>
-    <t>{"envcode": "prod", "x-fast-tenant": "auto", "tenantcode": "auto", "authorization":"${token}", "x-fast-user": "pengda01", "x-fast-trace-id": "fast-255957f049524e0-71ae00f1b6-a3654c2e"}</t>
-  </si>
-  <si>
-    <t>{"product_id": "641969294082576384"}</t>
-  </si>
-  <si>
-    <t>{"type":"mysql","database":"tenant_skyline","sql":"select ${id} from product_app limit 2","key":"feature_id_2"}</t>
-  </si>
-  <si>
-    <t>{"type":"response_body","text":"code=2000;msg=成功"};{"type":"length_equals","text":"res=body.data","len":1 }</t>
-  </si>
-  <si>
-    <t>case_4</t>
-  </si>
-  <si>
-    <t>healthmetricscore_serverandappscore</t>
-  </si>
-  <si>
     <t>/api/appanalysis/641969294082576384/healthmetricscore/serverandappscore</t>
   </si>
   <si>
@@ -222,6 +225,10 @@
   </si>
   <si>
     <t>${now}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"type":"func","func":"${generate_overview_time_range(page=1)}","key":"now_page"}
+</t>
   </si>
   <si>
     <t>{"type":"response_body","text":"code=2000;msg=成功"}</t>
@@ -848,10 +855,10 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -862,10 +869,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -876,7 +883,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>42</v>
@@ -890,10 +897,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -904,10 +911,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -918,10 +925,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -932,7 +939,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -1190,7 +1197,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>40</v>
@@ -1203,34 +1210,36 @@
         <v>42</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="O5" s="16"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="53.25">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
@@ -1246,34 +1255,34 @@
         <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="53.25">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
@@ -1289,34 +1298,34 @@
         <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="53.25">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>39</v>
@@ -1332,36 +1341,36 @@
         <v>42</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="53.25">
       <c r="A9" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>39</v>
@@ -1377,26 +1386,26 @@
         <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="8"/>
